--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-04-17 18:04:20</t>
+    <t>2018-04-18 15:09:33</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>92秒</t>
+    <t>132秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,9 +77,6 @@
     <t>失败</t>
   </si>
   <si>
-    <t>Huawei_H60-L01_android_4.4.2</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -108,31 +105,6 @@
   </si>
   <si>
     <t>截图</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>首页下拉刷新</t>
-  </si>
-  <si>
-    <t>testAHomeSwipeDown</t>
-  </si>
-  <si>
-    <t>刷新页面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查页面信息加载完成
-下拉刷新
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下拉按钮页面存在
-</t>
-  </si>
-  <si>
-    <t>用例失败重连过一次，失败原因:请检查元素com.zxjt.jjt:id/iv_mainpage_notice是否存在，下拉按钮页面存在 操作是否成功
-请检查元素com.zxjt.jjt:id/iv_mainpage_notice是否存在，下拉按钮页面存在 操作是否成功</t>
   </si>
 </sst>
 </file>
@@ -293,7 +265,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -356,49 +328,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="首页下拉刷新CheckPoint_1_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="571500"/>
-          <a:ext cx="1028700" cy="1828800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -731,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -765,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -796,17 +725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -840,7 +759,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -857,62 +776,34 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1"/>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
@@ -926,6 +817,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-04-18 15:09:33</t>
+    <t>2018-05-03 21:37:44</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>132秒</t>
+    <t>88秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,6 +77,9 @@
     <t>失败</t>
   </si>
   <si>
+    <t>SMARTISAN_YQ601_android_5.1.1</t>
+  </si>
+  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -105,6 +108,31 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test000</t>
+  </si>
+  <si>
+    <t>首页下拉刷新</t>
+  </si>
+  <si>
+    <t>testAHomeSwipeDown</t>
+  </si>
+  <si>
+    <t>刷新页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查页面信息加载完成
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下拉刷新
+下拉刷新
+</t>
+  </si>
+  <si>
+    <t>用例失败重连过一次，失败原因:请检查元素//*[contains(@id,'com.thinkive.future.dev.standard:id/tv_home_time')]是否存在，下拉刷新 操作是否成功
+请检查元素//*[contains(@id,'com.thinkive.future.dev.standard:id/tv_home_time')]是否存在，下拉刷新 操作是否成功</t>
   </si>
 </sst>
 </file>
@@ -265,7 +293,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,6 +356,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="首页下拉刷新CheckPoint_1_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="571500"/>
+          <a:ext cx="1028700" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -660,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -694,7 +765,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -725,7 +796,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -759,7 +840,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -776,34 +857,62 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="110" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
@@ -817,5 +926,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-05-03 21:37:44</t>
+    <t>2018-05-07 20:48:16</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>88秒</t>
+    <t>112秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>SMARTISAN_YQ601_android_5.1.1</t>
+    <t>brand1_model2_android_5.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -113,7 +113,7 @@
     <t>test000</t>
   </si>
   <si>
-    <t>首页下拉刷新</t>
+    <t>首次打开APP，APP启动成功</t>
   </si>
   <si>
     <t>testAHomeSwipeDown</t>
@@ -126,13 +126,104 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">下拉刷新
-下拉刷新
+    <t xml:space="preserve">首页打开成功
 </t>
   </si>
   <si>
-    <t>用例失败重连过一次，失败原因:请检查元素//*[contains(@id,'com.thinkive.future.dev.standard:id/tv_home_time')]是否存在，下拉刷新 操作是否成功
-请检查元素//*[contains(@id,'com.thinkive.future.dev.standard:id/tv_home_time')]是否存在，下拉刷新 操作是否成功</t>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>进入行情轮流过</t>
+  </si>
+  <si>
+    <t>testHangQingList</t>
+  </si>
+  <si>
+    <t>查看页面展示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+查看主力行情
+切换到大商所
+切换到中金所
+切换到能源中心
+切换到郑商所
+切换到上期所
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换后主力行情未被选中
+切换到上期所成功
+默认选中内盘
+默认未选中外盘
+默认未选中自选
+</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>查看夜盘行情</t>
+  </si>
+  <si>
+    <t>testYePan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+夜盘行情
+查看郑商所夜盘品种及时间
+查看大商所夜盘品种及时间
+查看能源中心夜盘品种及时间
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">判断夜盘弹出框是否存在
+判断夜盘提醒框中，上期所没有被选中
+判断夜盘提醒框中，能源中心被选中
+未选择不再提示
+点击我知道了，关闭夜盘提醒
+</t>
+  </si>
+  <si>
+    <t>test010</t>
+  </si>
+  <si>
+    <t>首次查询期货行情</t>
+  </si>
+  <si>
+    <t>testAFirstSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+切换上期所成功
+切换大商所成功
+切换郑商所成功
+切换中金所成功
+切换能源中心成功
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首次查询提示"-暂无合约查询记录-"
+切换到能源中心后，展示能源中心的原油合同
+</t>
+  </si>
+  <si>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>取消查询</t>
+  </si>
+  <si>
+    <t>testBSearchForChose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取消查询
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击行情
+</t>
   </si>
 </sst>
 </file>
@@ -290,10 +381,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -356,49 +447,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="首页下拉刷新CheckPoint_1_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="571500"/>
-          <a:ext cx="1028700" cy="1828800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -731,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -748,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -765,7 +813,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -801,10 +849,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
         <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
+    <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -907,16 +955,123 @@
         <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>
     <row r="10" spans="1:10" ht="30" customHeight="1"/>
@@ -926,6 +1081,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-05-07 20:48:16</t>
+    <t>2018-05-07 22:10:23</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>112秒</t>
+    <t>126秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,88 +110,16 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test000</t>
-  </si>
-  <si>
-    <t>首次打开APP，APP启动成功</t>
-  </si>
-  <si>
-    <t>testAHomeSwipeDown</t>
-  </si>
-  <si>
-    <t>刷新页面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查页面信息加载完成
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">首页打开成功
-</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>进入行情轮流过</t>
-  </si>
-  <si>
-    <t>testHangQingList</t>
+    <t>test010</t>
+  </si>
+  <si>
+    <t>首次查询期货行情</t>
+  </si>
+  <si>
+    <t>testAFirstSearch</t>
   </si>
   <si>
     <t>查看页面展示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切换到行情界面
-查看主力行情
-切换到大商所
-切换到中金所
-切换到能源中心
-切换到郑商所
-切换到上期所
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切换后主力行情未被选中
-切换到上期所成功
-默认选中内盘
-默认未选中外盘
-默认未选中自选
-</t>
-  </si>
-  <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>查看夜盘行情</t>
-  </si>
-  <si>
-    <t>testYePan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切换到行情界面
-夜盘行情
-查看郑商所夜盘品种及时间
-查看大商所夜盘品种及时间
-查看能源中心夜盘品种及时间
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">判断夜盘弹出框是否存在
-判断夜盘提醒框中，上期所没有被选中
-判断夜盘提醒框中，能源中心被选中
-未选择不再提示
-点击我知道了，关闭夜盘提醒
-</t>
-  </si>
-  <si>
-    <t>test010</t>
-  </si>
-  <si>
-    <t>首次查询期货行情</t>
-  </si>
-  <si>
-    <t>testAFirstSearch</t>
   </si>
   <si>
     <t xml:space="preserve">切换到行情界面
@@ -206,24 +134,41 @@
   <si>
     <t xml:space="preserve">首次查询提示"-暂无合约查询记录-"
 切换到能源中心后，展示能源中心的原油合同
+取消查询
 </t>
   </si>
   <si>
-    <t>test011</t>
-  </si>
-  <si>
-    <t>取消查询</t>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在//android.widget.HorizontalScrollView/android.widget.LinearLayout/android.widget.LinearLayout[2], </t>
+  </si>
+  <si>
+    <t>test012</t>
+  </si>
+  <si>
+    <t>输入字母查询合同，并且查看合同详情</t>
   </si>
   <si>
     <t>testBSearchForChose</t>
   </si>
   <si>
-    <t xml:space="preserve">取消查询
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+输入mh查询合同
+获取合同的值
+通过查询结果查看合同详情
 </t>
   </si>
   <si>
-    <t xml:space="preserve">点击行情
+    <t xml:space="preserve">获取合同详情中的合同名称
+返回查询列表
+检查返回后保持查询结果
+删除查询信息
+检查历史查询记录正确
+取消查询
 </t>
+  </si>
+  <si>
+    <t>用例失败重连过一次，失败原因:当前获取的数据为：棉花1805
+当前获取的数据为：棉花1805</t>
   </si>
 </sst>
 </file>
@@ -381,7 +326,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -779,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -796,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -849,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -957,7 +902,9 @@
       <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
@@ -965,16 +912,16 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>41</v>
@@ -985,93 +932,14 @@
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>
     <row r="10" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-05-07 22:10:23</t>
+    <t>2018-05-09 16:53:52</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>126秒</t>
+    <t>196秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -138,7 +138,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在//android.widget.HorizontalScrollView/android.widget.LinearLayout/android.widget.LinearLayout[2], </t>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>通过选择交易所的合约品种查询</t>
+  </si>
+  <si>
+    <t>testBSearchForChose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+切换能源中心成功
+获取合同的值
+通过点击合同查询
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查文本框的内容与选中内容一致
+检查查询结果文本包含查询条件
+查询未加入自选
+取消查询
+</t>
+  </si>
+  <si>
+    <t>数据对比成功，当前获取的数据为：原油1810</t>
   </si>
   <si>
     <t>test012</t>
@@ -147,7 +171,7 @@
     <t>输入字母查询合同，并且查看合同详情</t>
   </si>
   <si>
-    <t>testBSearchForChose</t>
+    <t>testCSearchTOABC</t>
   </si>
   <si>
     <t xml:space="preserve">切换到行情界面
@@ -161,14 +185,129 @@
     <t xml:space="preserve">获取合同详情中的合同名称
 返回查询列表
 检查返回后保持查询结果
+取消查询
+</t>
+  </si>
+  <si>
+    <t>数据对比成功，当前获取的数据为：棉花1805</t>
+  </si>
+  <si>
+    <t>test013</t>
+  </si>
+  <si>
+    <t>输入代码查询合同，并且检查系查询记录展示在最上方</t>
+  </si>
+  <si>
+    <t>testDSearchForCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+输入沪铝1901合同代码
+获取合同的值
+通过查询结果查看合同详情
+返回查询列表
 删除查询信息
-检查历史查询记录正确
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查历史查询记录正确
 取消查询
 </t>
   </si>
   <si>
-    <t>用例失败重连过一次，失败原因:当前获取的数据为：棉花1805
-当前获取的数据为：棉花1805</t>
+    <t>数据对比成功，当前获取的数据为：沪铝1901</t>
+  </si>
+  <si>
+    <t>test015</t>
+  </si>
+  <si>
+    <t>滑动查询结果的合同列表，检查翻页功能</t>
+  </si>
+  <si>
+    <t>testFSearchAndSwipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+输入简单合同条件
+选择底部合同上滑
+</t>
+  </si>
+  <si>
+    <t>请检查检查历史查询记录正确是否成功</t>
+  </si>
+  <si>
+    <t>test016</t>
+  </si>
+  <si>
+    <t>通过查询加入自选</t>
+  </si>
+  <si>
+    <t>testGSearchToAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+选择第一个查询条件查询合同
+取合同的值
+通过搜索结果添加到我的自选
+添加成功后，判断元素内容修改
+取消查询
+切换自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查最上方的合约名称与刚刚添加的一致
+</t>
+  </si>
+  <si>
+    <t>用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在//android.widget.HorizontalScrollView/android.widget.LinearLayout/android.widget.LinearLayout[2], 
+数据对比成功，当前获取的数据为：沪银1805</t>
+  </si>
+  <si>
+    <t>通过查询移除自选</t>
+  </si>
+  <si>
+    <t>testHSearchToSub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+选择第一个查询条件查询合同
+取合同的值
+通过搜索结果移除我的自选
+添加成功后，判断元素内容修改
+取消查询
+切换自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证移除后没有自选信息
+</t>
+  </si>
+  <si>
+    <t>请检查验证移除后没有自选信息是否成功</t>
+  </si>
+  <si>
+    <t>test017</t>
+  </si>
+  <si>
+    <t>清空查询列表</t>
+  </si>
+  <si>
+    <t>testIClearSearchList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+点击清空合同记录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">清空后提示"-暂无合约查询记录-"
+取消查询
+</t>
   </si>
 </sst>
 </file>
@@ -326,7 +465,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -724,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -741,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -794,7 +933,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -902,9 +1041,7 @@
       <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
@@ -912,37 +1049,209 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
     <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="14640" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试总况" sheetId="1" r:id="rId1"/>
     <sheet name="测试详情" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -26,46 +26,46 @@
     <t>versionCode</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>用例总数</t>
+  </si>
+  <si>
+    <t>脚本语言</t>
+  </si>
+  <si>
     <t>versionName</t>
   </si>
   <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>通过总数</t>
+  </si>
+  <si>
+    <t>appium1.7+python3</t>
+  </si>
+  <si>
     <t>packingTime</t>
   </si>
   <si>
+    <t>2017/12/4 13:00</t>
+  </si>
+  <si>
+    <t>失败总数</t>
+  </si>
+  <si>
     <t>测试日期</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>2017/12/4 13:00</t>
-  </si>
-  <si>
-    <t>2018-05-09 16:53:52</t>
-  </si>
-  <si>
-    <t>用例总数</t>
-  </si>
-  <si>
-    <t>通过总数</t>
-  </si>
-  <si>
-    <t>失败总数</t>
+    <t>2018-05-10 17:35:19</t>
   </si>
   <si>
     <t>测试耗时</t>
   </si>
   <si>
-    <t>196秒</t>
-  </si>
-  <si>
-    <t>脚本语言</t>
-  </si>
-  <si>
-    <t>appium1.7+python3</t>
+    <t>319秒</t>
   </si>
   <si>
     <t>机型</t>
@@ -110,6 +110,81 @@
     <t>截图</t>
   </si>
   <si>
+    <t>test000</t>
+  </si>
+  <si>
+    <t>首次打开APP，APP启动成功</t>
+  </si>
+  <si>
+    <t>testAHomeSwipeDown</t>
+  </si>
+  <si>
+    <t>刷新页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查页面信息加载完成
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首页打开成功
+</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>进入行情轮流过</t>
+  </si>
+  <si>
+    <t>testHangQingList</t>
+  </si>
+  <si>
+    <t>查看页面展示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+查看主力行情
+切换到大商所
+切换到中金所
+切换到能源中心
+切换到郑商所
+切换到上期所
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换后主力行情未被选中
+切换到上期所成功
+默认选中内盘
+默认未选中外盘
+默认未选中自选
+</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>查看夜盘行情</t>
+  </si>
+  <si>
+    <t>testYePan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+夜盘行情
+查看郑商所夜盘品种及时间
+查看大商所夜盘品种及时间
+查看能源中心夜盘品种及时间
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">判断夜盘弹出框是否存在
+判断夜盘提醒框中，上期所没有被选中
+判断夜盘提醒框中，能源中心被选中
+未选择不再提示
+点击我知道了，关闭夜盘提醒
+</t>
+  </si>
+  <si>
     <t>test010</t>
   </si>
   <si>
@@ -117,9 +192,6 @@
   </si>
   <si>
     <t>testAFirstSearch</t>
-  </si>
-  <si>
-    <t>查看页面展示</t>
   </si>
   <si>
     <t xml:space="preserve">切换到行情界面
@@ -314,40 +386,197 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +589,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -384,56 +799,372 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="10"/>
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>测试统计</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -442,8 +1173,28 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>自动化测试统计</c:v>
+            <c:strRef>
+              <c:f>"自动化测试统计"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>自动化测试统计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>测试总况!$C$4:$C$5</c:f>
@@ -465,7 +1216,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -474,25 +1225,52 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -502,7 +1280,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -516,14 +1294,14 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="238125" y="3048000"/>
+        <a:ext cx="5114925" cy="2514600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -815,127 +1593,126 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7083333333333" customWidth="1"/>
+    <col min="2" max="5" width="20.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="22.5" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="30" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="7" ht="30" customHeight="1"/>
+    <row r="8" ht="30" customHeight="1" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1"/>
-    <row r="8" spans="1:5" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -945,318 +1722,401 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="E4:E6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="10" width="20.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="22.5" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="30" customHeight="1" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="30" customHeight="1" spans="1:10">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="30" customHeight="1" spans="1:10">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
+    <row r="7" ht="30" customHeight="1" spans="1:10">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="3"/>
+      <c r="I7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
+    <row r="8" ht="30" customHeight="1" spans="1:10">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="3"/>
+      <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="9" ht="30" customHeight="1" spans="1:10">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="3"/>
+      <c r="I9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="10" ht="30" customHeight="1" spans="1:10">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="3" t="s">
+    <row r="11" ht="30" customHeight="1" spans="1:10">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+    <row r="12" ht="30" customHeight="1" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-05-17 19:40:06</t>
+    <t>2018-05-23 19:12:36</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>35秒</t>
+    <t>190秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,22 +110,50 @@
     <t>截图</t>
   </si>
   <si>
+    <t>test020</t>
+  </si>
+  <si>
+    <t>首次进入自选页面查看</t>
+  </si>
+  <si>
+    <t>testAFirstOpenOptional</t>
+  </si>
+  <si>
+    <t>查看页面展示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+查看最新页签
+查看涨幅页签
+查看成交量页签
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">展示添加图片
+展示添加图片控件
+自选被选中
+外盘未选中
+</t>
+  </si>
+  <si>
     <t>test021</t>
   </si>
   <si>
     <t>通过+号添加自选</t>
   </si>
   <si>
-    <t>testBAddOptionalFirstself</t>
-  </si>
-  <si>
-    <t>查看页面展示</t>
+    <t>testBAddOptionalFirst</t>
   </si>
   <si>
     <t xml:space="preserve">切换到行情界面
 进入自选页面
 点击+号
 输入过滤信息
+获取记录，加入自选
+获取记录，加入自选
+获取记录，加入自选
+获取录，加入自选
 获取第一条记录，加入自选
 记录加入自选的产品
 返回自选列表
@@ -137,6 +165,95 @@
   </si>
   <si>
     <t>数据对比成功，当前获取的数据为：棉花1807</t>
+  </si>
+  <si>
+    <t>test022</t>
+  </si>
+  <si>
+    <t>testCAddOptionalForSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行界面
+点击搜索查询
+通过点击合同查询
+获取第五条记录，加入自选
+获取第四条记录，加入自选
+获取第三条记录，加入自选
+获取第二条记录，加入自选
+获取第一条记录，加入自选
+记录最后一条加入自选的产品
+返回行情页面
+进入自选页面
+</t>
+  </si>
+  <si>
+    <t>数据对比成功，当前获取的数据为：沪银1806</t>
+  </si>
+  <si>
+    <t>test023</t>
+  </si>
+  <si>
+    <t>testDAddOptionalForSearch2</t>
+  </si>
+  <si>
+    <t>数据对比成功，当前获取的数据为：沪铝1806</t>
+  </si>
+  <si>
+    <t>test024</t>
+  </si>
+  <si>
+    <t>testEAddOptionalForDetial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入第一个产品详情
+点击加入自选
+获取产品名称
+返回行情页面
+进入自选页面
+</t>
+  </si>
+  <si>
+    <t>用例失败重连过一次，失败原因:对比数据失败,获取历史数据为：沪铝1806,当前获取的数据为：沪铝1807
+数据对比成功，当前获取的数据为：IC1806</t>
+  </si>
+  <si>
+    <t>自选页滑动</t>
+  </si>
+  <si>
+    <t>testGOptionalForLeftSwipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+判断列表存在最新
+判断列表存在涨幅
+判断列表存在涨幅
+判断列表存在涨幅
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">判断列表存在涨跌
+</t>
+  </si>
+  <si>
+    <t>testHDelOptionalForDetial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+点击自选记录进入详情
+点击取消自选按钮
+记录被取消自选的名称
+返回自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证自选页面没有取消自选的记录
+</t>
+  </si>
+  <si>
+    <t>历史数据不存在,获取历史数据为：IC1806,当前获取的数据为：沪铝1807</t>
   </si>
 </sst>
 </file>
@@ -294,7 +411,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -692,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -709,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -762,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -870,17 +987,187 @@
       <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
     <row r="10" spans="1:10" ht="30" customHeight="1"/>
     <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-05-23 19:12:36</t>
+    <t>2018-05-24 19:54:33</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>190秒</t>
+    <t>101秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>SMARTISAN_YQ601_android_5.1.1</t>
+    <t>brand1_model2_android_5.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -110,118 +110,16 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test020</t>
-  </si>
-  <si>
-    <t>首次进入自选页面查看</t>
-  </si>
-  <si>
-    <t>testAFirstOpenOptional</t>
+    <t>test026</t>
+  </si>
+  <si>
+    <t>自选页滑动</t>
+  </si>
+  <si>
+    <t>testGOptionalForLeftSwipe</t>
   </si>
   <si>
     <t>查看页面展示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切换到行情界面
-进入自选页面
-查看最新页签
-查看涨幅页签
-查看成交量页签
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">展示添加图片
-展示添加图片控件
-自选被选中
-外盘未选中
-</t>
-  </si>
-  <si>
-    <t>test021</t>
-  </si>
-  <si>
-    <t>通过+号添加自选</t>
-  </si>
-  <si>
-    <t>testBAddOptionalFirst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切换到行情界面
-进入自选页面
-点击+号
-输入过滤信息
-获取记录，加入自选
-获取记录，加入自选
-获取记录，加入自选
-获取录，加入自选
-获取第一条记录，加入自选
-记录加入自选的产品
-返回自选列表
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">验证得到的值与加入的值一致
-</t>
-  </si>
-  <si>
-    <t>数据对比成功，当前获取的数据为：棉花1807</t>
-  </si>
-  <si>
-    <t>test022</t>
-  </si>
-  <si>
-    <t>testCAddOptionalForSearch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切换到行界面
-点击搜索查询
-通过点击合同查询
-获取第五条记录，加入自选
-获取第四条记录，加入自选
-获取第三条记录，加入自选
-获取第二条记录，加入自选
-获取第一条记录，加入自选
-记录最后一条加入自选的产品
-返回行情页面
-进入自选页面
-</t>
-  </si>
-  <si>
-    <t>数据对比成功，当前获取的数据为：沪银1806</t>
-  </si>
-  <si>
-    <t>test023</t>
-  </si>
-  <si>
-    <t>testDAddOptionalForSearch2</t>
-  </si>
-  <si>
-    <t>数据对比成功，当前获取的数据为：沪铝1806</t>
-  </si>
-  <si>
-    <t>test024</t>
-  </si>
-  <si>
-    <t>testEAddOptionalForDetial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切换到行情界面
-进入第一个产品详情
-点击加入自选
-获取产品名称
-返回行情页面
-进入自选页面
-</t>
-  </si>
-  <si>
-    <t>用例失败重连过一次，失败原因:对比数据失败,获取历史数据为：沪铝1806,当前获取的数据为：沪铝1807
-数据对比成功，当前获取的数据为：IC1806</t>
-  </si>
-  <si>
-    <t>自选页滑动</t>
-  </si>
-  <si>
-    <t>testGOptionalForLeftSwipe</t>
   </si>
   <si>
     <t xml:space="preserve">切换到行情界面
@@ -237,23 +135,8 @@
 </t>
   </si>
   <si>
-    <t>testHDelOptionalForDetial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切换到行情界面
-进入自选页面
-点击自选记录进入详情
-点击取消自选按钮
-记录被取消自选的名称
-返回自选列表
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">验证自选页面没有取消自选的记录
-</t>
-  </si>
-  <si>
-    <t>历史数据不存在,获取历史数据为：IC1806,当前获取的数据为：沪铝1807</t>
+    <t>用例失败重连过一次，失败原因:==检查点_判断列表存在涨跌失败，请检查_//android.widget.TextView[@text='涨跌']==
+==检查点_判断列表存在涨跌失败，请检查_//android.widget.TextView[@text='涨跌']==</t>
   </si>
 </sst>
 </file>
@@ -411,10 +294,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,6 +360,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="自选页滑动CheckPoint_1_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="571500"/>
+          <a:ext cx="731520" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -809,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -826,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -843,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -879,10 +805,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+    <row r="3" spans="1:10" ht="110" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -985,189 +911,18 @@
         <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="7" spans="1:10" ht="30" customHeight="1"/>
+    <row r="8" spans="1:10" ht="30" customHeight="1"/>
+    <row r="9" spans="1:10" ht="30" customHeight="1"/>
     <row r="10" spans="1:10" ht="30" customHeight="1"/>
     <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
@@ -1175,5 +930,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-05-24 19:54:33</t>
+    <t>2018-05-25 17:31:20</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>101秒</t>
+    <t>72秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,13 +110,13 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test026</t>
-  </si>
-  <si>
-    <t>自选页滑动</t>
-  </si>
-  <si>
-    <t>testGOptionalForLeftSwipe</t>
+    <t>test030</t>
+  </si>
+  <si>
+    <t>未选择记录删除操作</t>
+  </si>
+  <si>
+    <t>testKDelOptionalForListNone</t>
   </si>
   <si>
     <t>查看页面展示</t>
@@ -124,19 +124,18 @@
   <si>
     <t xml:space="preserve">切换到行情界面
 进入自选页面
-判断列表存在最新
-判断列表存在涨幅
-判断列表存在涨幅
-判断列表存在涨幅
+点击编辑按钮
+点击删除操作
 </t>
   </si>
   <si>
-    <t xml:space="preserve">判断列表存在涨跌
+    <t xml:space="preserve">验证得到的值与加入的值一致
+返回自选列表
 </t>
   </si>
   <si>
-    <t>用例失败重连过一次，失败原因:==检查点_判断列表存在涨跌失败，请检查_//android.widget.TextView[@text='涨跌']==
-==检查点_判断列表存在涨跌失败，请检查_//android.widget.TextView[@text='涨跌']==</t>
+    <t>用例失败重连过一次，失败原因:==检查点_验证得到的值与加入的值一致失败，请检查_//*[contains(@text,'请选择要删除的合约')]==
+==检查点_验证得到的值与加入的值一致失败，请检查_//*[contains(@text,'请选择要删除的合约')]==</t>
   </si>
 </sst>
 </file>
@@ -382,7 +381,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="自选页滑动CheckPoint_1_NG.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="未选择记录删除操作CheckPoint_1_NG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-05-25 17:31:20</t>
+    <t>2018-05-28 21:49:58</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>72秒</t>
+    <t>97秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -134,8 +134,8 @@
 </t>
   </si>
   <si>
-    <t>用例失败重连过一次，失败原因:==检查点_验证得到的值与加入的值一致失败，请检查_//*[contains(@text,'请选择要删除的合约')]==
-==检查点_验证得到的值与加入的值一致失败，请检查_//*[contains(@text,'请选择要删除的合约')]==</t>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.thinkive.future.dev.standard:id/tv_optional_edit, 
+执行过程中失败，请检查元素是否存在com.thinkive.future.dev.standard:id/tv_optional_edit, </t>
   </si>
 </sst>
 </file>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-05-28 21:49:58</t>
+    <t>2018-06-01 19:20:45</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>97秒</t>
+    <t>85秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>brand1_model2_android_5.1</t>
+    <t>SMARTISAN_YQ601_android_5.1.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -110,32 +110,40 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test030</t>
-  </si>
-  <si>
-    <t>未选择记录删除操作</t>
-  </si>
-  <si>
-    <t>testKDelOptionalForListNone</t>
-  </si>
-  <si>
-    <t>查看页面展示</t>
+    <t>test057</t>
+  </si>
+  <si>
+    <t>修改抬头设置</t>
+  </si>
+  <si>
+    <t>testSDetaillMoreSettingZTCSXG</t>
   </si>
   <si>
     <t xml:space="preserve">切换到行情界面
-进入自选页面
-点击编辑按钮
-点击删除操作
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击设置按钮
+点击设置指标参数
+点击设置指标参数
+点击设置指标参数
+记录参数值
+删除值
+记录参数值
+设置新值
+保存参数
+恢复默认
 </t>
   </si>
   <si>
-    <t xml:space="preserve">验证得到的值与加入的值一致
-返回自选列表
+    <t xml:space="preserve">恢复默认成功
+返回合同详情
+返回合同详情
+返回行情
 </t>
   </si>
   <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.thinkive.future.dev.standard:id/tv_optional_edit, 
-执行过程中失败，请检查元素是否存在com.thinkive.future.dev.standard:id/tv_optional_edit, </t>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.thinkive.future.dev.standard:id/et_paramater_three_value, 
+执行过程中失败，请检查元素是否存在com.thinkive.future.dev.standard:id/et_paramater_three_value, </t>
   </si>
 </sst>
 </file>
@@ -375,13 +383,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="未选择记录删除操作CheckPoint_1_NG.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="修改抬头设置CheckPoint_1_NG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -395,7 +403,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13096875" y="571500"/>
-          <a:ext cx="731520" cy="1219200"/>
+          <a:ext cx="1028700" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -901,19 +909,19 @@
         <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="239">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-06-01 19:20:45</t>
+    <t>2018-06-07 15:53:11</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>85秒</t>
+    <t>1090秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>SMARTISAN_YQ601_android_5.1.1</t>
+    <t>brand1_model2_android_5.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -110,13 +110,993 @@
     <t>截图</t>
   </si>
   <si>
+    <t>test000</t>
+  </si>
+  <si>
+    <t>首次打开APP，APP启动成功</t>
+  </si>
+  <si>
+    <t>testAHomeSwipeDown</t>
+  </si>
+  <si>
+    <t>刷新页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查页面信息加载完成
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首页打开成功
+</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>进入行情轮流过</t>
+  </si>
+  <si>
+    <t>testAFirstOpenFutureList</t>
+  </si>
+  <si>
+    <t>查看页面展示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+查看主力行情
+切换到大商所
+切换到中金所
+切换到能源中心
+切换到郑商所
+切换到上期所
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查切换到上期所
+默认选中内盘
+默认未选中外盘
+默认未选中自选
+</t>
+  </si>
+  <si>
+    <t>test010</t>
+  </si>
+  <si>
+    <t>首次查询期货行情</t>
+  </si>
+  <si>
+    <t>testAFirstSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+切换上期所成功
+切换大商所成功
+切换郑商所成功
+切换中金所成功
+切换能源中心成功
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首次查询提示"-暂无合约查询记录-"
+切换到能源中心后，展示能源中心的原油合同
+取消查询
+</t>
+  </si>
+  <si>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>通过选择交易所的合约品种查询</t>
+  </si>
+  <si>
+    <t>testBSearchForChose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+切换能源中心成功
+获取合同的值
+通过点击合同查询
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查文本框的内容与选中内容一致
+检查查询结果文本包含查询条件
+取消查询
+</t>
+  </si>
+  <si>
+    <t>test012</t>
+  </si>
+  <si>
+    <t>输入字母查询合同，并且查看合同详情</t>
+  </si>
+  <si>
+    <t>testCSearchTOABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+输入mh查询合同
+获取合同的值
+通过查询结果查看合同详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取合同详情中的合同名称
+返回查询列表
+检查返回后保持查询结果
+取消查询
+</t>
+  </si>
+  <si>
+    <t>test013</t>
+  </si>
+  <si>
+    <t>输入代码查询合同，并且检查系查询记录展示在最上方</t>
+  </si>
+  <si>
+    <t>testDSearchForCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+输入沪铝1901合同代码
+获取合同的值
+通过查询结果查看合同详情
+返回查询列表
+删除查询信息
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查历史查询记录正确
+取消查询
+</t>
+  </si>
+  <si>
+    <t>test015</t>
+  </si>
+  <si>
+    <t>滑动查询结果的合同列表，检查翻页功能</t>
+  </si>
+  <si>
+    <t>testFSearchAndSwipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+输入简单合同条件
+选择底部合同上滑
+</t>
+  </si>
+  <si>
+    <t>test016</t>
+  </si>
+  <si>
+    <t>通过查询加入自选</t>
+  </si>
+  <si>
+    <t>testGSearchToAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+选择第一个查询条件查询合同
+取合同的值
+通过搜索结果添加到我的自选
+添加成功后，判断元素内容修改
+取消查询
+切换自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查最上方的合约名称与刚刚添加的一致
+</t>
+  </si>
+  <si>
+    <t>test017</t>
+  </si>
+  <si>
+    <t>通过查询移除自选</t>
+  </si>
+  <si>
+    <t>testHSearchToSub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+选择第一个查询条件查询合同
+取合同的值
+通过搜索结果移除我的自选
+添加成功后，判断元素内容修改
+取消查询
+切换自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证移除后没有自选信息
+</t>
+  </si>
+  <si>
+    <t>test018</t>
+  </si>
+  <si>
+    <t>清空查询列表</t>
+  </si>
+  <si>
+    <t>testIClearSearchList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+点击清空合同记录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">清空后提示"-暂无合约查询记录-"
+取消查询
+</t>
+  </si>
+  <si>
+    <t>test020</t>
+  </si>
+  <si>
+    <t>首次进入自选页面查看</t>
+  </si>
+  <si>
+    <t>testAFirstOpenOptional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+查看最新页签
+查看涨幅页签
+查看成交量页签
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">展示添加图片
+验证自选文本
+自选被选中
+外盘未选中
+</t>
+  </si>
+  <si>
+    <t>test021</t>
+  </si>
+  <si>
+    <t>通过+号添加自选</t>
+  </si>
+  <si>
+    <t>testBAddOptionalFirst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+点击+号
+输入过滤信息
+获取记录，加入自选
+获取记录，加入自选
+获取记录，加入自选
+获取录，加入自选
+获取第一条记录，加入自选
+记录加入自选的产品
+返回自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证得到的值与加入的值一致
+</t>
+  </si>
+  <si>
+    <t>test022</t>
+  </si>
+  <si>
+    <t>通过查询条件加入自选1</t>
+  </si>
+  <si>
+    <t>testCAddOptionalForSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行界面
+点击搜索查询
+通过点击合同查询
+获取第五条记录，加入自选
+获取第四条记录，加入自选
+获取第三条记录，加入自选
+获取第二条记录，加入自选
+获取第一条记录，加入自选
+记录最后一条加入自选的产品
+返回行情页面
+进入自选页面
+</t>
+  </si>
+  <si>
+    <t>test023</t>
+  </si>
+  <si>
+    <t>通过查询条件加入自选2</t>
+  </si>
+  <si>
+    <t>testDAddOptionalForSearch1</t>
+  </si>
+  <si>
+    <t>test024</t>
+  </si>
+  <si>
+    <t>通过产品合同详情加入自选</t>
+  </si>
+  <si>
+    <t>testEAddOptionalForDetial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入第一个产品详情
+点击加入自选
+获取产品名称
+返回行情页面
+进入自选页面
+</t>
+  </si>
+  <si>
+    <t>test025</t>
+  </si>
+  <si>
+    <t>自选页滑动</t>
+  </si>
+  <si>
+    <t>testFAddOptionalForSwipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+记录第一条记录
+向上滑动
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证取到的第一条记录已经修改，滑动生效
+</t>
+  </si>
+  <si>
+    <t>test026</t>
+  </si>
+  <si>
+    <t>testGOptionalForLeftSwipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+判断列表存在最新
+判断列表存在涨幅
+判断列表存在涨幅
+判断列表存在涨幅
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">判断列表存在涨跌
+</t>
+  </si>
+  <si>
+    <t>test027</t>
+  </si>
+  <si>
+    <t>自选产品置顶操作</t>
+  </si>
+  <si>
+    <t>testHOptionalListTop</t>
+  </si>
+  <si>
+    <t>编辑-选择-置顶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+点击编辑按钮
+记录被置顶自选的名称
+选中弟9条记录，点击置顶操作
+返回自选列表
+</t>
+  </si>
+  <si>
+    <t>test028</t>
+  </si>
+  <si>
+    <t>从产品详情取消自选</t>
+  </si>
+  <si>
+    <t>testIDelOptionalForDetial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+点击自选记录进入详情
+点击取消自选按钮
+记录被取消自选的名称
+返回自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证自选页面没有取消自选的记录
+</t>
+  </si>
+  <si>
+    <t>test029</t>
+  </si>
+  <si>
+    <t>通过查询结果取消自选</t>
+  </si>
+  <si>
+    <t>testJDelOptionalForSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行界面
+点击搜索查询
+通过点击合同查询
+获取第一条记录，取消加入自选
+记录取消自选的产品名
+返回自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证取消加入自选的产品，在自选列表不存在
+</t>
+  </si>
+  <si>
+    <t>test031</t>
+  </si>
+  <si>
+    <t>通过编辑删除一条自选记录</t>
+  </si>
+  <si>
+    <t>testLDelOptionalForListOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+点击编辑按钮
+选择第一条记录
+记录被删除自选的名称
+点击删除操作
+点击确认删除操作
+返回自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证删除成功
+</t>
+  </si>
+  <si>
+    <t>test032</t>
+  </si>
+  <si>
+    <t>通过编辑删除所有自选记录</t>
+  </si>
+  <si>
+    <t>testNDelOptionalForListAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+点击编辑按钮
+选择全部记录
+点击删除操作
+点击确认删除操作
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证删除所有产品合同后，+号出现
+</t>
+  </si>
+  <si>
+    <t>test040</t>
+  </si>
+  <si>
+    <t>首次进入产品合同详情页面</t>
+  </si>
+  <si>
+    <t>testAFirstOpenDetaill</t>
+  </si>
+  <si>
+    <t>查看产品合同详情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第一条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+长按K线图
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证出现盘口信息
+查看产品详情展示的合同名称与点击的合同名称一致
+验证默认展示分时信息
+验证默认盘口存在但是未选中展示
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test041</t>
+  </si>
+  <si>
+    <t>从产品合同详情展示盘口信息</t>
+  </si>
+  <si>
+    <t>testBDetailShowPKForClick</t>
+  </si>
+  <si>
+    <t>查看产品合同详情的盘口信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+切换展示盘口
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证默认展示分时信息
+验证默认盘口存在但是未选中展示
+验证盘口标题存在
+验证盘口关键字开盘
+验证盘口关键字最高
+验证盘口关键字最低
+验证盘口关键字均价
+验证盘口关键字结算
+验证盘口关键字昨结
+验证盘口关键字昨收
+验证盘口关键字成交量
+验证盘口关键字持仓量
+验证盘口关键字日增仓
+验证盘口关键字外盘
+验证盘口关键字内盘
+验证盘口关键字涨停
+验证盘口关键字跌停
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test042</t>
+  </si>
+  <si>
+    <t>从产品合同详情展示K线信息</t>
+  </si>
+  <si>
+    <t>testCDetailShowKRbForClick</t>
+  </si>
+  <si>
+    <t>查看产品合同详情的K线信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+切换展示K线
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证K线被选中
+验证分时没有被选中
+验证默认展示日K数据
+验证默认周K数据未展示
+验证默认月K数据未展示
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test043</t>
+  </si>
+  <si>
+    <t>从产品合同详情展示资讯信息</t>
+  </si>
+  <si>
+    <t>testDDetailShowZiRbForClick</t>
+  </si>
+  <si>
+    <t>查看产品合同详情的资讯信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第一条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+切换展示资讯
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证资讯被选中
+验证分时没有被选中
+存在咨询内容
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test044</t>
+  </si>
+  <si>
+    <t>查看资讯信息内容</t>
+  </si>
+  <si>
+    <t>testEDetailForOpenZiRb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+切换展示资讯
+记录资讯的标题
+查看资讯内容
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证资讯内容与选择的记录一致
+点击实现字体大小切换
+返回资讯列表
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test045</t>
+  </si>
+  <si>
+    <t>验证产品合同详情的滑动功能</t>
+  </si>
+  <si>
+    <t>testFDetailSwipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合同详情分时图向右滑动
+分时右滑，盘口被选中
+盘口向左滑动
+合同详情盘口左滑，分时被选中
+合同详情分时向左滑动
+合同详情分时左滑，K线被选中
+合同详情K线向左滑动
+合同详情K线左滑，资讯被选中
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test046</t>
+  </si>
+  <si>
+    <t>合同详情上下切换</t>
+  </si>
+  <si>
+    <t>testGFuturesDetailNext</t>
+  </si>
+  <si>
+    <t>产品合同详情切换产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第二条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到下一个合同详情
+查看产品详情展示的合同名称与记录的第二条合同名称一致
+验证默认展示分时信息
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test048</t>
+  </si>
+  <si>
+    <t>合同详情K线图功能遍历</t>
+  </si>
+  <si>
+    <t>testIFuturesDetailKRb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+切换展示K线
+切换展示成周K展示
+切换展示成月K展示
+点击周期按钮
+选择15min参数
+点击指标
+选择趋势指标BOLL
+点击指标
+选择摆动指标
+选择MACD
+长按K线图
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证长按后出现盘口信息
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test049</t>
+  </si>
+  <si>
+    <t>分时横屏</t>
+  </si>
+  <si>
+    <t>testJFuturesDetailfenRbLandscape</t>
+  </si>
+  <si>
+    <t>合同详情分时页面的横屏功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击切换横屏
+长按点击K线图
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证长按后出现价格信息
+验证分时进入横屏，默认展示分时
+验证分时进入横屏，指标不可的点击
+切换日K
+返回合同详情竖屏
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test050</t>
+  </si>
+  <si>
+    <t>K线横屏</t>
+  </si>
+  <si>
+    <t>testKFuturesDetailKRbLandscape</t>
+  </si>
+  <si>
+    <t>合同详情K线页面的横屏功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第一条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+切换展示K线
+切换展示成月K展示
+点击切换横屏
+长按点击K线图
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证切换横屏，展示合同名称正确
+验证长按后出现收盘信息
+验证分时进入横屏，默认展示月K记录
+验证分时进入横屏，指标可以点击
+切换日K
+验证切换后长按效果消失，显示点数信息
+返回合同详情竖屏
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test051</t>
+  </si>
+  <si>
+    <t>产品详情刷新</t>
+  </si>
+  <si>
+    <t>testLFuturesDetaillMoreToRefresh</t>
+  </si>
+  <si>
+    <t>产品详情刷新操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第一条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击刷新按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查看产品详情展示的合同名称与点击的合同名称一致
+验证默认展示分时信息
+验证默认盘口存在但是未选中展示
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test052</t>
+  </si>
+  <si>
+    <t>查看合同交易明细</t>
+  </si>
+  <si>
+    <t>testMFuturesDetaillMoreToDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查看产品详情展示的合同名称与点击的合同名称一致
+验证明细的时间存在
+验证明细的价格存在
+验证明细的现手存在
+验证明细的仓差存在
+验证明细的性质存在
+返回合同详情
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test053</t>
+  </si>
+  <si>
+    <t>查看合同交易的F10</t>
+  </si>
+  <si>
+    <t>testNFuturesDetaillMoreToF10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第一条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击F10按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证F10查看的合同名称正确
+验证F10展示合同名称
+验证F10展示交易品种
+验证F10展示交易单位
+验证F10展示每日价格最大波动限制
+验证F10展示合同交割月份
+返回合同详情
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test054</t>
+  </si>
+  <si>
+    <t>设置夜盘提醒关闭</t>
+  </si>
+  <si>
+    <t>testOFDetaillMoreSettingYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击设置按钮
+点击关闭夜盘提醒
+返回合同详情
+返回行情
+点击夜盘
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证没有弹出框信息
+</t>
+  </si>
+  <si>
+    <t>test055</t>
+  </si>
+  <si>
+    <t>首次查看抬头设置</t>
+  </si>
+  <si>
+    <t>testPFDetaillMoreSettingTTFirst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击设置按钮
+点击设置抬头
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证默认最新为选中状态
+验证默认涨幅为选中状态
+验证默认成交量为选中状态
+验证默认涨跌为选中状态
+验证默认为持仓量选中状态
+验证默认为日增仓选中状态
+验证默认现手为未选中状态
+查找振幅元素成功
+查找买价元素成功
+查找卖价元素成功
+向上滑动
+查找买量元素成功
+查找内盘元素成功
+查找外盘元素成功
+查找昨持仓元素成功
+查找开盘价元素成功
+查找最高价元素成功
+查找最低价元素成功
+向上滑动
+查找均价元素成功
+查找涨停元素成功
+查找跌停元素成功
+查找昨收价元素成功
+查找昨结算元素成功
+查找结算价元素成功
+查找时间元素成功
+返回行情设置
+返回合同详情
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test056</t>
+  </si>
+  <si>
+    <t>修改抬头设置</t>
+  </si>
+  <si>
+    <t>testQDetaillMoreSettingTTModify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击设置按钮
+点击设置抬头
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+返回合同详情
+返回合同详情
+返回行情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查找现手元素成功
+查找振幅元素成功
+查找买价元素成功
+</t>
+  </si>
+  <si>
     <t>test057</t>
   </si>
   <si>
-    <t>修改抬头设置</t>
-  </si>
-  <si>
-    <t>testSDetaillMoreSettingZTCSXG</t>
+    <t>testQDetaillMoreSettingTTModify2</t>
+  </si>
+  <si>
+    <t>test058</t>
+  </si>
+  <si>
+    <t>查看指标参数修改</t>
+  </si>
+  <si>
+    <t>testRDetaillMoreSettingZTCSXGFirst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击设置按钮
+点击设置指标参数
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查找指标参数修改成功
+MA默认被选中
+EMA默认未被选中
+MACD默认未被选中
+WR默认未被选中
+返回合同详情
+返回合同详情
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test059</t>
+  </si>
+  <si>
+    <t>testSDetaillMSettingZTCSXGModify</t>
   </si>
   <si>
     <t xml:space="preserve">切换到行情界面
@@ -131,19 +1111,28 @@
 记录参数值
 设置新值
 保存参数
-恢复默认
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">恢复默认成功
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改成功
 返回合同详情
 返回合同详情
 返回行情
 </t>
   </si>
   <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.thinkive.future.dev.standard:id/et_paramater_three_value, 
-执行过程中失败，请检查元素是否存在com.thinkive.future.dev.standard:id/et_paramater_three_value, </t>
+    <t>testTDetaillMSettingZTCSXGReplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例文件格式错误
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因: </t>
   </si>
 </sst>
 </file>
@@ -301,7 +1290,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -378,18 +1367,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="修改抬头设置CheckPoint_1_NG.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="CheckPoint_42_NG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -402,8 +1391,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13096875" y="571500"/>
-          <a:ext cx="1028700" cy="1828800"/>
+          <a:off x="13096875" y="16192500"/>
+          <a:ext cx="731520" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -759,7 +1748,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -812,7 +1801,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -831,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +1884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
+    <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -909,29 +1898,1163 @@
         <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="110" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+      <c r="I44" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="259">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-06-13 15:12:53</t>
+    <t>2018-06-13 16:22:18</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>137秒</t>
+    <t>1219秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -108,6 +108,26 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test000</t>
+  </si>
+  <si>
+    <t>首次打开APP，APP启动成功</t>
+  </si>
+  <si>
+    <t>testAHomeSwipeDown</t>
+  </si>
+  <si>
+    <t>刷新页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查页面信息加载完成
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首页打开成功
+</t>
   </si>
   <si>
     <t>test001</t>
@@ -148,9 +168,6 @@
     <t>testBYePan</t>
   </si>
   <si>
-    <t>刷新页面</t>
-  </si>
-  <si>
     <t xml:space="preserve">切换到行情界面
 夜盘行情
 查看郑商所夜盘品种及时间
@@ -224,6 +241,995 @@
 验证外盘行情存在
 切换到上期所
 检查切换到上期所
+</t>
+  </si>
+  <si>
+    <t>test010</t>
+  </si>
+  <si>
+    <t>首次查询期货行情</t>
+  </si>
+  <si>
+    <t>testAFirstSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+切换上期所成功
+切换大商所成功
+切换郑商所成功
+切换中金所成功
+切换能源中心成功
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首次查询提示"-暂无合约查询记录-"
+切换到能源中心后，展示能源中心的原油合同
+取消查询
+</t>
+  </si>
+  <si>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>通过选择交易所的合约品种查询</t>
+  </si>
+  <si>
+    <t>testBSearchForChose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+切换能源中心成功
+获取合同的值
+通过点击合同查询
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查文本框的内容与选中内容一致
+检查查询结果文本包含查询条件
+取消查询
+</t>
+  </si>
+  <si>
+    <t>test012</t>
+  </si>
+  <si>
+    <t>输入字母查询合同，并且查看合同详情</t>
+  </si>
+  <si>
+    <t>testCSearchTOABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+输入mh查询合同
+获取合同的值
+通过查询结果查看合同详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取合同详情中的合同名称
+返回查询列表
+检查返回后保持查询结果
+取消查询
+</t>
+  </si>
+  <si>
+    <t>test013</t>
+  </si>
+  <si>
+    <t>输入代码查询合同，并且检查系查询记录展示在最上方</t>
+  </si>
+  <si>
+    <t>testDSearchForCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+输入沪铝1901合同代码
+获取合同的值
+通过查询结果查看合同详情
+返回查询列表
+删除查询信息
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查历史查询记录正确
+取消查询
+</t>
+  </si>
+  <si>
+    <t>test015</t>
+  </si>
+  <si>
+    <t>滑动查询结果的合同列表，检查翻页功能</t>
+  </si>
+  <si>
+    <t>testFSearchAndSwipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+输入简单合同条件
+选择底部合同上滑
+</t>
+  </si>
+  <si>
+    <t>test016</t>
+  </si>
+  <si>
+    <t>通过查询加入自选</t>
+  </si>
+  <si>
+    <t>testGSearchToAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+选择第一个查询条件查询合同
+取合同的值
+通过搜索结果添加到我的自选
+添加成功后，判断元素内容修改
+取消查询
+切换自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查最上方的合约名称与刚刚添加的一致
+</t>
+  </si>
+  <si>
+    <t>test017</t>
+  </si>
+  <si>
+    <t>通过查询移除自选</t>
+  </si>
+  <si>
+    <t>testHSearchToSub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+选择第一个查询条件查询合同
+取合同的值
+通过搜索结果移除我的自选
+添加成功后，判断元素内容修改
+取消查询
+切换自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证移除后没有自选信息
+</t>
+  </si>
+  <si>
+    <t>test018</t>
+  </si>
+  <si>
+    <t>清空查询列表</t>
+  </si>
+  <si>
+    <t>testIClearSearchList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击搜索查询
+点击清空合同记录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">清空后提示"-暂无合约查询记录-"
+取消查询
+</t>
+  </si>
+  <si>
+    <t>test020</t>
+  </si>
+  <si>
+    <t>首次进入自选页面查看</t>
+  </si>
+  <si>
+    <t>testAFirstOpenOptional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+查看最新页签
+查看涨幅页签
+查看成交量页签
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">展示添加图片
+验证自选文本
+自选被选中
+外盘未选中
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在//android.widget.TextView[@text='涨幅'], </t>
+  </si>
+  <si>
+    <t>test021</t>
+  </si>
+  <si>
+    <t>通过+号添加自选</t>
+  </si>
+  <si>
+    <t>testBAddOptionalFirst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+点击+号
+输入过滤信息
+获取记录，加入自选
+获取记录，加入自选
+获取记录，加入自选
+获取录，加入自选
+获取第一条记录，加入自选
+记录加入自选的产品
+返回自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证得到的值与加入的值一致
+</t>
+  </si>
+  <si>
+    <t>test022</t>
+  </si>
+  <si>
+    <t>通过查询条件加入自选1</t>
+  </si>
+  <si>
+    <t>testCAddOptionalForSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行界面
+点击搜索查询
+通过点击合同查询
+获取第五条记录，加入自选
+获取第四条记录，加入自选
+获取第三条记录，加入自选
+获取第二条记录，加入自选
+获取第一条记录，加入自选
+记录最后一条加入自选的产品
+返回行情页面
+进入自选页面
+</t>
+  </si>
+  <si>
+    <t>test023</t>
+  </si>
+  <si>
+    <t>通过查询条件加入自选2</t>
+  </si>
+  <si>
+    <t>testDAddOptionalForSearch1</t>
+  </si>
+  <si>
+    <t>test024</t>
+  </si>
+  <si>
+    <t>通过产品合同详情加入自选</t>
+  </si>
+  <si>
+    <t>testEAddOptionalForDetial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入第一个产品详情
+点击加入自选
+获取产品名称
+返回行情页面
+进入自选页面
+</t>
+  </si>
+  <si>
+    <t>test025</t>
+  </si>
+  <si>
+    <t>自选页滑动</t>
+  </si>
+  <si>
+    <t>testFAddOptionalForSwipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+记录第一条记录
+向上滑动
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证取到的第一条记录已经修改，滑动生效
+</t>
+  </si>
+  <si>
+    <t>test026</t>
+  </si>
+  <si>
+    <t>testGOptionalForLeftSwipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+判断列表存在最新
+判断列表存在涨幅
+判断列表存在涨幅
+判断列表存在涨幅
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">判断列表存在涨跌
+</t>
+  </si>
+  <si>
+    <t>test027</t>
+  </si>
+  <si>
+    <t>自选产品置顶操作</t>
+  </si>
+  <si>
+    <t>testHOptionalListTop</t>
+  </si>
+  <si>
+    <t>编辑-选择-置顶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+点击编辑按钮
+记录被置顶自选的名称
+选中弟9条记录，点击置顶操作
+返回自选列表
+</t>
+  </si>
+  <si>
+    <t>test028</t>
+  </si>
+  <si>
+    <t>从产品详情取消自选</t>
+  </si>
+  <si>
+    <t>testIDelOptionalForDetial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+点击自选记录进入详情
+点击取消自选按钮
+记录被取消自选的名称
+返回自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证自选页面没有取消自选的记录
+</t>
+  </si>
+  <si>
+    <t>test029</t>
+  </si>
+  <si>
+    <t>通过查询结果取消自选</t>
+  </si>
+  <si>
+    <t>testJDelOptionalForSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行界面
+点击搜索查询
+通过点击合同查询
+获取第一条记录，取消加入自选
+记录取消自选的产品名
+返回自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证取消加入自选的产品，在自选列表不存在
+</t>
+  </si>
+  <si>
+    <t>test031</t>
+  </si>
+  <si>
+    <t>通过编辑删除一条自选记录</t>
+  </si>
+  <si>
+    <t>testLDelOptionalForListOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+点击编辑按钮
+选择第一条记录
+记录被删除自选的名称
+点击删除操作
+点击确认删除操作
+返回自选列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证删除成功
+</t>
+  </si>
+  <si>
+    <t>test032</t>
+  </si>
+  <si>
+    <t>通过编辑删除所有自选记录</t>
+  </si>
+  <si>
+    <t>testNDelOptionalForListAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+进入自选页面
+点击编辑按钮
+选择全部记录
+点击删除操作
+点击确认删除操作
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证删除所有产品合同后，+号出现
+</t>
+  </si>
+  <si>
+    <t>test040</t>
+  </si>
+  <si>
+    <t>首次进入产品合同详情页面</t>
+  </si>
+  <si>
+    <t>testAFirstOpenDetaill</t>
+  </si>
+  <si>
+    <t>查看产品合同详情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第一条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+长按K线图
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证出现盘口信息
+查看产品详情展示的合同名称与点击的合同名称一致
+验证默认展示分时信息
+验证默认盘口存在但是未选中展示
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test041</t>
+  </si>
+  <si>
+    <t>从产品合同详情展示盘口信息</t>
+  </si>
+  <si>
+    <t>testBDetailShowPKForClick</t>
+  </si>
+  <si>
+    <t>查看产品合同详情的盘口信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+切换展示盘口
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证默认展示分时信息
+验证默认盘口存在但是未选中展示
+验证盘口标题存在
+验证盘口关键字开盘
+验证盘口关键字最高
+验证盘口关键字最低
+验证盘口关键字均价
+验证盘口关键字结算
+验证盘口关键字昨结
+验证盘口关键字昨收
+验证盘口关键字成交量
+验证盘口关键字持仓量
+验证盘口关键字日增仓
+验证盘口关键字外盘
+验证盘口关键字内盘
+验证盘口关键字涨停
+验证盘口关键字跌停
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test042</t>
+  </si>
+  <si>
+    <t>从产品合同详情展示K线信息</t>
+  </si>
+  <si>
+    <t>testCDetailShowKRbForClick</t>
+  </si>
+  <si>
+    <t>查看产品合同详情的K线信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+切换展示K线
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证K线被选中
+验证分时没有被选中
+验证默认展示日K数据
+验证默认周K数据未展示
+验证默认月K数据未展示
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test043</t>
+  </si>
+  <si>
+    <t>从产品合同详情展示资讯信息</t>
+  </si>
+  <si>
+    <t>testDDetailShowZiRbForClick</t>
+  </si>
+  <si>
+    <t>查看产品合同详情的资讯信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第一条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+切换展示资讯
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证资讯被选中
+验证分时没有被选中
+存在咨询内容
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test044</t>
+  </si>
+  <si>
+    <t>查看资讯信息内容</t>
+  </si>
+  <si>
+    <t>testEDetailForOpenZiRb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+切换展示资讯
+记录资讯的标题
+查看资讯内容
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证资讯内容与选择的记录一致
+点击实现字体大小切换
+返回资讯列表
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test045</t>
+  </si>
+  <si>
+    <t>验证产品合同详情的滑动功能</t>
+  </si>
+  <si>
+    <t>testFDetailSwipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合同详情分时图向右滑动
+分时右滑，盘口被选中
+盘口向左滑动
+合同详情盘口左滑，分时被选中
+合同详情分时向左滑动
+合同详情分时左滑，K线被选中
+合同详情K线向左滑动
+合同详情K线左滑，资讯被选中
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test046</t>
+  </si>
+  <si>
+    <t>合同详情上下切换</t>
+  </si>
+  <si>
+    <t>testGFuturesDetailNext</t>
+  </si>
+  <si>
+    <t>产品合同详情切换产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第二条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到下一个合同详情
+查看产品详情展示的合同名称与记录的第二条合同名称一致
+验证默认展示分时信息
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test048</t>
+  </si>
+  <si>
+    <t>合同详情K线图功能遍历</t>
+  </si>
+  <si>
+    <t>testIFuturesDetailKRb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+切换展示K线
+切换展示成周K展示
+切换展示成月K展示
+点击周期按钮
+选择15min参数
+点击指标
+选择趋势指标BOLL
+点击指标
+选择摆动指标
+选择MACD
+长按K线图
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证长按后出现盘口信息
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test049</t>
+  </si>
+  <si>
+    <t>分时横屏</t>
+  </si>
+  <si>
+    <t>testJFuturesDetailfenRbLandscape</t>
+  </si>
+  <si>
+    <t>合同详情分时页面的横屏功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击切换横屏
+长按点击K线图
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证长按后出现价格信息
+验证分时进入横屏，默认展示分时
+验证分时进入横屏，指标不可的点击
+切换日K
+返回合同详情竖屏
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test050</t>
+  </si>
+  <si>
+    <t>K线横屏</t>
+  </si>
+  <si>
+    <t>testKFuturesDetailKRbLandscape</t>
+  </si>
+  <si>
+    <t>合同详情K线页面的横屏功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第一条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+切换展示K线
+切换展示成月K展示
+点击切换横屏
+长按点击K线图
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证切换横屏，展示合同名称正确
+验证长按后出现收盘信息
+验证分时进入横屏，默认展示月K记录
+验证分时进入横屏，指标可以点击
+切换日K
+验证切换后长按效果消失，显示点数信息
+返回合同详情竖屏
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test051</t>
+  </si>
+  <si>
+    <t>产品详情刷新</t>
+  </si>
+  <si>
+    <t>testLFuturesDetaillMoreToRefresh</t>
+  </si>
+  <si>
+    <t>产品详情刷新操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第一条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击刷新按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查看产品详情展示的合同名称与点击的合同名称一致
+验证默认展示分时信息
+验证默认盘口存在但是未选中展示
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test052</t>
+  </si>
+  <si>
+    <t>查看合同交易明细</t>
+  </si>
+  <si>
+    <t>testMFuturesDetaillMoreToDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查看产品详情展示的合同名称与点击的合同名称一致
+验证明细的时间存在
+验证明细的价格存在
+验证明细的现手存在
+验证明细的仓差存在
+验证明细的性质存在
+返回合同详情
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test053</t>
+  </si>
+  <si>
+    <t>查看合同交易的F10</t>
+  </si>
+  <si>
+    <t>testNFuturesDetaillMoreToF10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+获取行情第一条记录的产品合同名称
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击F10按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证F10查看的合同名称正确
+验证F10展示合同名称
+验证F10展示交易品种
+验证F10展示交易单位
+验证F10展示每日价格最大波动限制
+验证F10展示合同交割月份
+返回合同详情
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test054</t>
+  </si>
+  <si>
+    <t>设置夜盘提醒关闭</t>
+  </si>
+  <si>
+    <t>testOFDetaillMoreSettingYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击设置按钮
+点击关闭夜盘提醒
+返回合同详情
+返回行情
+点击夜盘
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证没有弹出框信息
+</t>
+  </si>
+  <si>
+    <t>test055</t>
+  </si>
+  <si>
+    <t>首次查看抬头设置</t>
+  </si>
+  <si>
+    <t>testPFDetaillMoreSettingTTFirst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击设置按钮
+点击设置抬头
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证默认最新为选中状态
+验证默认涨幅为选中状态
+验证默认成交量为选中状态
+验证默认涨跌为选中状态
+验证默认为持仓量选中状态
+验证默认为日增仓选中状态
+验证默认现手为未选中状态
+查找振幅元素成功
+查找买价元素成功
+查找卖价元素成功
+向上滑动
+查找买量元素成功
+查找内盘元素成功
+查找外盘元素成功
+查找昨持仓元素成功
+查找开盘价元素成功
+查找最高价元素成功
+查找最低价元素成功
+向上滑动
+查找均价元素成功
+查找涨停元素成功
+查找跌停元素成功
+查找昨收价元素成功
+查找昨结算元素成功
+查找结算价元素成功
+查找时间元素成功
+返回行情设置
+返回合同详情
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test056</t>
+  </si>
+  <si>
+    <t>修改抬头设置</t>
+  </si>
+  <si>
+    <t>testQDetaillMoreSettingTTModify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击设置按钮
+点击设置抬头
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+点击抬头配置
+返回合同详情
+返回合同详情
+返回行情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查找现手元素成功
+查找振幅元素成功
+查找买价元素成功
+</t>
+  </si>
+  <si>
+    <t>test057</t>
+  </si>
+  <si>
+    <t>testQDetaillMoreSettingTTModify2</t>
+  </si>
+  <si>
+    <t>test058</t>
+  </si>
+  <si>
+    <t>查看指标参数修改</t>
+  </si>
+  <si>
+    <t>testRDetaillMoreSettingZTCSXGFirst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击设置按钮
+点击设置指标参数
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查找指标参数修改成功
+MA默认被选中
+EMA默认未被选中
+MACD默认未被选中
+WR默认未被选中
+返回合同详情
+返回合同详情
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test059</t>
+  </si>
+  <si>
+    <t>testSDetaillMSettingZTCSXGModify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击设置按钮
+点击设置指标参数
+点击设置指标参数
+点击设置指标参数
+记录参数值
+删除值
+记录参数值
+设置新值
+保存参数
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改成功
+返回合同详情
+返回合同详情
+返回行情
+</t>
+  </si>
+  <si>
+    <t>test060</t>
+  </si>
+  <si>
+    <t>testTDetaillMSettingZTCSXGReplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换到行情界面
+点击行情第一条记录的产品合同名称
+点击more按钮
+点击设置按钮
+点击设置指标参数
+点击设置指标参数
+记录参数值
+恢复默认
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恢复默认成功
+返回合同详情
+返回合同详情
+返回行情
 </t>
   </si>
 </sst>
@@ -382,7 +1388,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -780,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -797,7 +1803,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -850,7 +1856,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -869,7 +1875,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,22 +2000,22 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>18</v>
@@ -1022,7 +2028,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>48</v>
@@ -1031,7 +2037,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>50</v>
@@ -1059,7 +2065,7 @@
         <v>54</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>55</v>
@@ -1073,10 +2079,1157 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="30" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="30" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
